--- a/cleaned_real_estate_data.xlsx
+++ b/cleaned_real_estate_data.xlsx
@@ -545,7 +545,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>38,7</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>64,7</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>82,9</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28,5</t>
+          <t>28.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91,4</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>76,1</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>57,5</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>54,2</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>105,5</t>
+          <t>105.5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>38,7</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>64,7</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>82,9</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>28,5</t>
+          <t>28.5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>91,4</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>76,1</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>57,5</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>54,2</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>105,5</t>
+          <t>105.5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>38,7</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>38,7</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>48,7</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>64,7</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>93,3</t>
+          <t>93.3</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>97,1</t>
+          <t>97.1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>92,3</t>
+          <t>92.3</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>80,1</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>78,4</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>57,6</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>129,3</t>
+          <t>129.3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>96,2</t>
+          <t>96.2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>73,3</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>58,3</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>67,1</t>
+          <t>67.1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>45,8</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>60,5</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>69,4</t>
+          <t>69.4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>244,7</t>
+          <t>244.7</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>160,5</t>
+          <t>160.5</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>78,5</t>
+          <t>78.5</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>150,5</t>
+          <t>150.5</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>135,2</t>
+          <t>135.2</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>56,4</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>94,7</t>
+          <t>94.7</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>86,1</t>
+          <t>86.1</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>246,1</t>
+          <t>246.1</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>77,4</t>
+          <t>77.4</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>178,6</t>
+          <t>178.6</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>77,6</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>63,9</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>96,9</t>
+          <t>96.9</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>182,2</t>
+          <t>182.2</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>94,3</t>
+          <t>94.3</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>99,2</t>
+          <t>99.2</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>71,8</t>
+          <t>71.8</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7652,7 +7652,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>37,5</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>81,5</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>72,2</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>107,5</t>
+          <t>107.5</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -8498,7 +8498,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>74,7</t>
+          <t>74.7</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>36,9</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9062,7 +9062,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>38,6</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>199,9</t>
+          <t>199.9</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>65,4</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -9579,7 +9579,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>57,3</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>34,3</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>55,6</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -9720,7 +9720,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>55,7</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>47,7</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -9814,7 +9814,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>32,9</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>44,3</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>36,1</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>69,6</t>
+          <t>69.6</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -10002,7 +10002,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>91,3</t>
+          <t>91.3</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>63,2</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>68,5</t>
+          <t>68.5</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -10190,7 +10190,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>35,4</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>76,7</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -10284,7 +10284,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>67,5</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>111,7</t>
+          <t>111.7</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>38,6</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>41,6</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -10468,7 +10468,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>99,8</t>
+          <t>99.8</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -10515,7 +10515,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>100,3</t>
+          <t>100.3</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>91,4</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>67,9</t>
+          <t>67.9</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>37,7</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>50,3</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -11216,7 +11216,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>48,5</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>79,9</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>26,3</t>
+          <t>26.3</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -11498,7 +11498,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>78,5</t>
+          <t>78.5</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -11592,7 +11592,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>66,6</t>
+          <t>66.6</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>57,7</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -11776,7 +11776,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>58,1</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -11870,7 +11870,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>78,3</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -11964,7 +11964,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>81,2</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>75,5</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>83,3</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>89,2</t>
+          <t>89.2</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -12387,7 +12387,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>58,4</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -12618,7 +12618,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>76,4</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>44,8</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -12806,7 +12806,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>47,7</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -12853,7 +12853,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>46,7</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>66,8</t>
+          <t>66.8</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>55,4</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -13135,7 +13135,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>59,3</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>63,4</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>86,9</t>
+          <t>86.9</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -13554,7 +13554,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>78,8</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>77,3</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -13648,7 +13648,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>47,1</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -13789,7 +13789,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>64,4</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -13836,7 +13836,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>98,7</t>
+          <t>98.7</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -13977,7 +13977,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>57,5</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -14024,7 +14024,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>63,2</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>56,7</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -14259,7 +14259,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>60,3</t>
+          <t>60.3</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -14306,7 +14306,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>63,7</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>87,3</t>
+          <t>87.3</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>29,6</t>
+          <t>29.6</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>46,4</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>29,6</t>
+          <t>29.6</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -15054,7 +15054,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>46,4</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -15101,7 +15101,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>51,7</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -15242,7 +15242,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>47,3</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -15383,7 +15383,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>76,6</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -15430,7 +15430,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>47,7</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>66,7</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>121,2</t>
+          <t>121.2</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -15712,7 +15712,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>52,9</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -16084,7 +16084,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>168,7</t>
+          <t>168.7</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>93,9</t>
+          <t>93.9</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -16272,7 +16272,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>56,4</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>49,8</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -16503,7 +16503,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>119,9</t>
+          <t>119.9</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -16550,7 +16550,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>90,6</t>
+          <t>90.6</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -16593,7 +16593,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>90,6</t>
+          <t>90.6</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -16636,7 +16636,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>110,8</t>
+          <t>110.8</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -16683,7 +16683,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>90,6</t>
+          <t>90.6</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -16820,7 +16820,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>89,4</t>
+          <t>89.4</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -16914,7 +16914,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>123,8</t>
+          <t>123.8</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -16961,7 +16961,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>128,4</t>
+          <t>128.4</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>67,9</t>
+          <t>67.9</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -17102,7 +17102,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>121,9</t>
+          <t>121.9</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -17149,7 +17149,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>89,4</t>
+          <t>89.4</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -17286,7 +17286,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>137,5</t>
+          <t>137.5</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -17662,7 +17662,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>52,6</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>52,6</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>52,6</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>52,6</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -17850,7 +17850,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>63,5</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -17897,7 +17897,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>89,6</t>
+          <t>89.6</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>89,4</t>
+          <t>89.4</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -18038,7 +18038,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>123,8</t>
+          <t>123.8</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -18085,7 +18085,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>128,4</t>
+          <t>128.4</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -18132,7 +18132,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>67,9</t>
+          <t>67.9</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -18226,7 +18226,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>121,9</t>
+          <t>121.9</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -18273,7 +18273,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>89,4</t>
+          <t>89.4</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -18410,7 +18410,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>137,5</t>
+          <t>137.5</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -18786,7 +18786,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>52,6</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -18833,7 +18833,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>52,6</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -18880,7 +18880,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>52,6</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -18927,7 +18927,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>52,6</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -18974,7 +18974,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>63,5</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -19021,7 +19021,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>89,6</t>
+          <t>89.6</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -19068,7 +19068,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>89,6</t>
+          <t>89.6</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -19115,7 +19115,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>94,3</t>
+          <t>94.3</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -19162,7 +19162,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>98,3</t>
+          <t>98.3</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -19209,7 +19209,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>76,7</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -19256,7 +19256,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>82,2</t>
+          <t>82.2</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -19303,7 +19303,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>86,7</t>
+          <t>86.7</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>127,4</t>
+          <t>127.4</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -19393,7 +19393,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>85,7</t>
+          <t>85.7</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -19440,7 +19440,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>113,4</t>
+          <t>113.4</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -19534,7 +19534,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>88,2</t>
+          <t>88.2</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -19581,7 +19581,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>54,1</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -19628,7 +19628,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>178,9</t>
+          <t>178.9</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -19910,7 +19910,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>70,6</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -20376,7 +20376,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>109,4</t>
+          <t>109.4</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -20423,7 +20423,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>111,5</t>
+          <t>111.5</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -20470,7 +20470,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>132,8</t>
+          <t>132.8</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -20517,7 +20517,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>109,4</t>
+          <t>109.4</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -20564,7 +20564,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>127,4</t>
+          <t>127.4</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -20611,7 +20611,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>80,9</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -21081,7 +21081,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>62,5</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -21128,7 +21128,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>256,6</t>
+          <t>256.6</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -21175,7 +21175,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>259,8</t>
+          <t>259.8</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -21222,7 +21222,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>43,1</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -21316,7 +21316,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>104,8</t>
+          <t>104.8</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>87,4</t>
+          <t>87.4</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -21457,7 +21457,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>104,8</t>
+          <t>104.8</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>87,4</t>
+          <t>87.4</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -21692,7 +21692,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>60,4</t>
+          <t>60.4</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -21829,7 +21829,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>36,7</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -21876,7 +21876,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>67,5</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -21970,7 +21970,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>64,2</t>
+          <t>64.2</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -22107,7 +22107,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>48,4</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -22150,7 +22150,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>48,4</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -22330,7 +22330,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>58,5</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -22377,7 +22377,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>80,2</t>
+          <t>80.2</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -22424,7 +22424,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>109,3</t>
+          <t>109.3</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -22467,7 +22467,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>134,6</t>
+          <t>134.6</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -22514,7 +22514,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>112,5</t>
+          <t>112.5</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>38,6</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -22886,7 +22886,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>199,9</t>
+          <t>199.9</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -23215,7 +23215,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>65,4</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -23262,7 +23262,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>57,3</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -23309,7 +23309,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>34,3</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -23356,7 +23356,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>55,6</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -23403,7 +23403,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>55,7</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -23450,7 +23450,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>47,7</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -23497,7 +23497,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>32,9</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -23544,7 +23544,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>44,3</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -23591,7 +23591,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>36,1</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>69,6</t>
+          <t>69.6</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -23685,7 +23685,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>91,3</t>
+          <t>91.3</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
